--- a/nr-prepare-release-1.1.0/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/nr-prepare-release-1.1.0/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:58:26+00:00</t>
+    <t>2024-11-13T10:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release-1.1.0/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/nr-prepare-release-1.1.0/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T10:02:18+00:00</t>
+    <t>2024-11-13T13:22:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1361,11 +1361,11 @@
     <t>External identifiers for this item.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>.id</t>
@@ -1636,7 +1636,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
